--- a/test/tmp.xlsx
+++ b/test/tmp.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonglee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonglee/IdeaProjects/tableau/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Goods" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,12 +28,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>People</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Foods</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月</t>
   </si>
 </sst>
 </file>
@@ -347,36 +369,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>78</v>
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>87</v>
+        <v>7663</v>
+      </c>
+      <c r="C2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>764</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9893</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
